--- a/out/res2/CEcoldrandom_avg.xlsx
+++ b/out/res2/CEcoldrandom_avg.xlsx
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AE7F77-FD53-4DA7-B73F-46E00F2F8748}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1513,5 +1513,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>